--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -497,7 +497,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Smøreguttene FK</t>
+          <t>HSK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -509,7 +509,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t xml:space="preserve">Sparkekameratene </t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
@@ -554,32 +554,32 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45177</v>
+        <v>45222</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tempe Hovedbane</t>
+          <t>Tempe kunstgress</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pareto FK</t>
+          <t>Elias Ward Heimdal</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>97316101</v>
+        <v>47265035</v>
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HSK</t>
+          <t>Smøreguttene FK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -591,11 +591,11 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sparkekameratene </t>
+          <t xml:space="preserve">Wolves of Ballstreet </t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45177</v>
+        <v>45543</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44811</v>
+        <v>45545</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -650,11 +650,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>Elias Ward Heimdal</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>48225968</v>
+        <v>47265035</v>
       </c>
       <c r="K5" t="inlineStr"/>
     </row>
@@ -805,7 +805,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -817,7 +817,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Smøreguttene FK</t>
+          <t>HSK</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
@@ -887,7 +887,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tihlde Pythons</t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -899,7 +899,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HSK</t>
+          <t>Smøreguttene FK</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Eberg Kunstgress</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45563</v>
+        <v>45564</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tempe Kunstgress</t>
+          <t>Tempe Hovedbane</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -664,13 +664,17 @@
           <t>NTNUI Samba</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -582,16 +582,20 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
@@ -1039,7 +1043,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1110,11 +1114,11 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>48225968</v>
+        <v>48229637</v>
       </c>
       <c r="K17" t="inlineStr"/>
     </row>
@@ -1192,11 +1196,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NTNUI Champs</t>
+          <t>Pareto FK</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>48229637</v>
+        <v>97316101</v>
       </c>
       <c r="K19" t="inlineStr"/>
     </row>
@@ -1363,7 +1367,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
@@ -1611,11 +1615,11 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>Datakameratene FK</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>48225968</v>
+        <v>97513219</v>
       </c>
       <c r="K30" t="inlineStr"/>
     </row>
@@ -1663,7 +1667,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1975,7 +1979,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2299,7 +2303,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
@@ -2317,11 +2321,11 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>SALT IF</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>48225968</v>
+        <v>90188180</v>
       </c>
       <c r="K48" t="inlineStr"/>
     </row>
@@ -2558,7 +2562,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2747,7 +2751,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2818,11 +2822,11 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Sparkekameratene</t>
+          <t>NTNUI Champs</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>48225968</v>
+        <v>48229637</v>
       </c>
       <c r="K61" t="inlineStr"/>
     </row>
@@ -3071,7 +3075,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
@@ -3273,7 +3277,7 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves of Ballstreet </t>
+          <t>Wolves of Ballstreet</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -500,16 +500,20 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sparkekameratene </t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
@@ -1055,7 +1059,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sparkekameratene </t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
@@ -2221,7 +2225,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sparkekameratene </t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
@@ -3116,7 +3120,7 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sparkekameratene </t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
@@ -3359,7 +3363,7 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sparkekameratene </t>
+          <t>Sparkekameratene</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -631,13 +631,17 @@
           <t>CKK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>MiT Fotball</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -783,13 +783,17 @@
           <t>Dronning Maud FC</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -828,13 +828,17 @@
           <t>Tihlde Pythons</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>HSK</t>
@@ -910,13 +914,17 @@
           <t>Sparkekameratene</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -873,13 +873,17 @@
           <t>Janus FK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>CKK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1074,13 +1074,17 @@
           <t>Dronning Maud FC</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Janus FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1160,16 +1160,20 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">MiT Fotball </t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1119,13 +1119,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>
@@ -1246,16 +1250,20 @@
           <t>CKK</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tihlde Pythons </t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1209,13 +1209,17 @@
           <t>NTNUI Samba</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Sparkekameratene</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1447,13 +1447,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>
@@ -1488,13 +1492,17 @@
           <t>NTNUI Samba</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Janus FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1406,13 +1406,17 @@
           <t>CKK</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Dronning Maud FC</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1365,13 +1365,17 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Sparkekameratene</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1693,13 +1693,17 @@
           <t>Tihlde Pythons</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1652,13 +1652,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>CKK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1824,13 +1824,17 @@
           <t>Janus FK</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>HSK</t>
@@ -1972,13 +1976,17 @@
           <t>NTNUI Samba</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>16</v>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -2054,13 +2062,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Dronning Maud FC</t>
@@ -2095,13 +2107,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Janus FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -2304,13 +2304,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -2263,16 +2263,20 @@
           <t>Sparkekameratene</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">MiT Fotball </t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -2222,13 +2222,17 @@
           <t>NTNUI Samba</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>CKK</t>
@@ -2353,13 +2357,17 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Janus FK</t>
@@ -2394,13 +2402,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Dronning Maud FC</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -545,13 +545,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Janus FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1787,13 +1787,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>
@@ -1939,13 +1943,17 @@
           <t>Sparkekameratene</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>Tihlde Pythons</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -2853,13 +2853,17 @@
           <t>Tihlde Pythons</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Janus FK</t>
@@ -2894,13 +2898,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>CKK</t>
@@ -2976,13 +2984,17 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -3234,13 +3234,17 @@
           <t>Tihlde Pythons</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>9</v>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>Petroleum FK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -3193,16 +3193,20 @@
           <t>Wolves of Ballstreet</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">NTNUI Samba </t>
+          <t>NTNUI Samba</t>
         </is>
       </c>
       <c r="F67" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -3111,13 +3111,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>HSK</t>
@@ -3152,13 +3156,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>Dronning Maud FC</t>
@@ -3472,16 +3480,20 @@
           <t>Dronning Maud FC</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tihlde Pythons </t>
+          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -3291,13 +3291,17 @@
           <t>Sparkekameratene</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>CKK</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -3443,13 +3443,17 @@
           <t>NTNUI Samba</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>
@@ -3529,13 +3533,17 @@
           <t>CKK</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -3402,16 +3402,20 @@
           <t>Janus FK</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">MiT Fotball </t>
+          <t>MiT Fotball</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
@@ -3578,13 +3582,17 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>Sparkekameratene</t>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>

--- a/Scripts/Kamper/H24/Avd-C.xlsx
+++ b/Scripts/Kamper/H24/Avd-C.xlsx
@@ -1549,13 +1549,17 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>5</v>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
